--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FIFACASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B1DE4-440A-4D71-8B42-F855AE8B9641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A84078-732F-4EB3-864C-348A8D8D09B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{6D3EF8EF-E10B-4CC9-B5D9-A4960EB149C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6D3EF8EF-E10B-4CC9-B5D9-A4960EB149C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$33</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Country</t>
   </si>
@@ -141,6 +142,27 @@
   </si>
   <si>
     <t>Croatia</t>
+  </si>
+  <si>
+    <t>First place</t>
+  </si>
+  <si>
+    <t>Third place</t>
+  </si>
+  <si>
+    <t>Fourth Place</t>
+  </si>
+  <si>
+    <t>Second place</t>
+  </si>
+  <si>
+    <t>Quarter Finalist</t>
+  </si>
+  <si>
+    <t>Round of 16</t>
+  </si>
+  <si>
+    <t>Did not Qualify</t>
   </si>
 </sst>
 </file>
@@ -236,6 +258,891 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>First place</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Second place</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Third place</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fourth Place</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quarter Finalist</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Round of 16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Did not Qualify</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F65-494D-9ABA-01DC5EC0F5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="42"/>
+        <c:overlap val="15"/>
+        <c:axId val="1067336495"/>
+        <c:axId val="1067336911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1067336495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067336911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1067336911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1067336495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8365C9DD-B35B-3FE4-7E39-25891B0C9072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFECAE6-8A7C-4623-AB5E-0435B1715170}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="C10:K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,74 +1463,74 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
         <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -637,7 +1544,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -645,31 +1552,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -677,39 +1584,39 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -717,7 +1624,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -725,23 +1632,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -749,7 +1656,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -757,23 +1664,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -781,7 +1688,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -789,18 +1696,18 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +1727,83 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B33" xr:uid="{0AFECAE6-8A7C-4623-AB5E-0435B1715170}"/>
+  <autoFilter ref="A1:B33" xr:uid="{0AFECAE6-8A7C-4623-AB5E-0435B1715170}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
+      <sortCondition descending="1" ref="B1:B33"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4012C29-179F-40DC-8B1F-71CC3A8D5011}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>